--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H2">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I2">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J2">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>2.181253204995556</v>
+        <v>2.691703189564444</v>
       </c>
       <c r="R2">
-        <v>19.63127884496</v>
+        <v>24.22532870608</v>
       </c>
       <c r="S2">
-        <v>0.0003009039600564914</v>
+        <v>0.0004623384973280771</v>
       </c>
       <c r="T2">
-        <v>0.0003078994959643944</v>
+        <v>0.000467227611623355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H3">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I3">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J3">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>4.288000434937334</v>
+        <v>5.074251698436666</v>
       </c>
       <c r="R3">
-        <v>38.59200391443601</v>
+        <v>45.66826528593</v>
       </c>
       <c r="S3">
-        <v>0.0005915298181071235</v>
+        <v>0.0008715752592689354</v>
       </c>
       <c r="T3">
-        <v>0.0006052819404865925</v>
+        <v>0.0008807919502521192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H4">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I4">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J4">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>7.108299704905777</v>
+        <v>11.39343775042111</v>
       </c>
       <c r="R4">
-        <v>63.97469734415199</v>
+        <v>102.54093975379</v>
       </c>
       <c r="S4">
-        <v>0.0009805902063895857</v>
+        <v>0.00195698578853453</v>
       </c>
       <c r="T4">
-        <v>0.001003387360665816</v>
+        <v>0.001977680425147475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H5">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I5">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J5">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>1.302740008908667</v>
+        <v>0.5046650881383333</v>
       </c>
       <c r="R5">
-        <v>7.816440053452</v>
+        <v>3.02799052883</v>
       </c>
       <c r="S5">
-        <v>0.0001797130322636914</v>
+        <v>8.668344244209706E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001225940485946309</v>
+        <v>5.840006548387135E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H6">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I6">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J6">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>6.400297591197778</v>
+        <v>14.55011402588333</v>
       </c>
       <c r="R6">
-        <v>57.60267832077999</v>
+        <v>130.95102623295</v>
       </c>
       <c r="S6">
-        <v>0.0008829212886980528</v>
+        <v>0.00249919005957251</v>
       </c>
       <c r="T6">
-        <v>0.0009034477968163895</v>
+        <v>0.002525618371118026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J7">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>1.032167882208889</v>
+        <v>1.076351803294222</v>
       </c>
       <c r="R7">
-        <v>9.289510939880001</v>
+        <v>9.687166229648</v>
       </c>
       <c r="S7">
-        <v>0.0001423875974088986</v>
+        <v>0.0001848788073145397</v>
       </c>
       <c r="T7">
-        <v>0.0001456978813623799</v>
+        <v>0.0001868338545904191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J8">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
-        <v>2.029079575770334</v>
+        <v>2.029079575770333</v>
       </c>
       <c r="R8">
         <v>18.261716181933</v>
       </c>
       <c r="S8">
-        <v>0.000279911602293913</v>
+        <v>0.0003485234202856331</v>
       </c>
       <c r="T8">
-        <v>0.0002864190994518703</v>
+        <v>0.0003522089685283279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J9">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>3.363643723578445</v>
+        <v>4.555980509266556</v>
       </c>
       <c r="R9">
-        <v>30.272793512206</v>
+        <v>41.00382458339899</v>
       </c>
       <c r="S9">
-        <v>0.0004640147756922051</v>
+        <v>0.0007825547744924852</v>
       </c>
       <c r="T9">
-        <v>0.0004748023772396988</v>
+        <v>0.0007908300960521652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.231619</v>
       </c>
       <c r="I10">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J10">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>0.6164558947051668</v>
+        <v>0.2018042627371667</v>
       </c>
       <c r="R10">
-        <v>3.698735368231001</v>
+        <v>1.210825576423</v>
       </c>
       <c r="S10">
-        <v>8.504011340459217E-05</v>
+        <v>3.466276666388305E-05</v>
       </c>
       <c r="T10">
-        <v>5.801144003801777E-05</v>
+        <v>2.335287785063593E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.231619</v>
       </c>
       <c r="I11">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J11">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>3.028617491579445</v>
+        <v>5.818264632821667</v>
       </c>
       <c r="R11">
-        <v>27.257557424215</v>
+        <v>52.364381695395</v>
       </c>
       <c r="S11">
-        <v>0.0004177978946348272</v>
+        <v>0.0009993701154811007</v>
       </c>
       <c r="T11">
-        <v>0.000427511027601291</v>
+        <v>0.001009938205194826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H12">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I12">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J12">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>181.3570607647111</v>
+        <v>265.9545752855556</v>
       </c>
       <c r="R12">
-        <v>1632.2135468824</v>
+        <v>2393.59117757</v>
       </c>
       <c r="S12">
-        <v>0.02501821321950493</v>
+        <v>0.04568149979231088</v>
       </c>
       <c r="T12">
-        <v>0.0255998466712407</v>
+        <v>0.04616457025898205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H13">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I13">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J13">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>356.5194327999266</v>
+        <v>501.3630256789583</v>
       </c>
       <c r="R13">
-        <v>3208.67489519934</v>
+        <v>4512.267231110625</v>
       </c>
       <c r="S13">
-        <v>0.04918186890036486</v>
+        <v>0.08611626601585895</v>
       </c>
       <c r="T13">
-        <v>0.05032526870755148</v>
+        <v>0.08702692405032353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H14">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I14">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J14">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>591.0090302968754</v>
+        <v>1125.732179425764</v>
       </c>
       <c r="R14">
-        <v>5319.081272671879</v>
+        <v>10131.58961483187</v>
       </c>
       <c r="S14">
-        <v>0.08152971752118941</v>
+        <v>0.1933605927456616</v>
       </c>
       <c r="T14">
-        <v>0.08342515308266754</v>
+        <v>0.1954053327869941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H15">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I15">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J15">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>108.3143847835633</v>
+        <v>49.86359183197916</v>
       </c>
       <c r="R15">
-        <v>649.8863087013799</v>
+        <v>299.181550991875</v>
       </c>
       <c r="S15">
-        <v>0.01494197337466981</v>
+        <v>0.008564784634634349</v>
       </c>
       <c r="T15">
-        <v>0.01019290024168181</v>
+        <v>0.005770236730642243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H16">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I16">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J16">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>532.1432452228554</v>
+        <v>1437.628565851042</v>
       </c>
       <c r="R16">
-        <v>4789.289207005699</v>
+        <v>12938.65709265937</v>
       </c>
       <c r="S16">
-        <v>0.0734091802997241</v>
+        <v>0.2469332552817765</v>
       </c>
       <c r="T16">
-        <v>0.07511582635602737</v>
+        <v>0.2495445128676248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H17">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I17">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J17">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>5.266472822673333</v>
+        <v>7.660148528456</v>
       </c>
       <c r="R17">
-        <v>31.59883693604</v>
+        <v>45.960891170736</v>
       </c>
       <c r="S17">
-        <v>0.0007265101200736221</v>
+        <v>0.001315740001975963</v>
       </c>
       <c r="T17">
-        <v>0.0004956002124214964</v>
+        <v>0.0008864357495547375</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H18">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I18">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J18">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>10.3530565376315</v>
+        <v>14.4404932280385</v>
       </c>
       <c r="R18">
-        <v>62.11833922578901</v>
+        <v>86.642959368231</v>
       </c>
       <c r="S18">
-        <v>0.001428204531105051</v>
+        <v>0.002480361120650872</v>
       </c>
       <c r="T18">
-        <v>0.0009742720017792441</v>
+        <v>0.001671060213909003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H19">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I19">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J19">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>17.16245831779966</v>
+        <v>32.4238667013155</v>
       </c>
       <c r="R19">
-        <v>102.974749906798</v>
+        <v>194.543200207893</v>
       </c>
       <c r="S19">
-        <v>0.002367561757756092</v>
+        <v>0.005569262564450061</v>
       </c>
       <c r="T19">
-        <v>0.00161506918850081</v>
+        <v>0.003752104084675855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H20">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I20">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J20">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>3.14536837640575</v>
+        <v>1.43619458016525</v>
       </c>
       <c r="R20">
-        <v>12.581473505623</v>
+        <v>5.744778320661</v>
       </c>
       <c r="S20">
-        <v>0.0004339036835014647</v>
+        <v>0.0002466869477432154</v>
       </c>
       <c r="T20">
-        <v>0.0001973294445799818</v>
+        <v>0.0001107980447503449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H21">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I21">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J21">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>15.45304013484917</v>
+        <v>41.4072528413775</v>
       </c>
       <c r="R21">
-        <v>92.71824080909499</v>
+        <v>248.443517048265</v>
       </c>
       <c r="S21">
-        <v>0.002131747456388258</v>
+        <v>0.007112287540241026</v>
       </c>
       <c r="T21">
-        <v>0.001454204783971824</v>
+        <v>0.004791665471380531</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H22">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I22">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J22">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N22">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O22">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P22">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q22">
-        <v>553.1831716452355</v>
+        <v>180.6412367490098</v>
       </c>
       <c r="R22">
-        <v>4978.648544807119</v>
+        <v>1625.771130741088</v>
       </c>
       <c r="S22">
-        <v>0.07631163892547739</v>
+        <v>0.03102771445150938</v>
       </c>
       <c r="T22">
-        <v>0.07808576250362467</v>
+        <v>0.03135582479306943</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H23">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I23">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J23">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P23">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q23">
-        <v>1087.471035083071</v>
+        <v>340.5349839220887</v>
       </c>
       <c r="R23">
-        <v>9787.239315747642</v>
+        <v>3064.814855298798</v>
       </c>
       <c r="S23">
-        <v>0.1500166693870346</v>
+        <v>0.05849175100901662</v>
       </c>
       <c r="T23">
-        <v>0.1535043170646657</v>
+        <v>0.05911028668724092</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H24">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I24">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J24">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N24">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O24">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P24">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q24">
-        <v>1802.721374464493</v>
+        <v>764.6179913291104</v>
       </c>
       <c r="R24">
-        <v>16224.49237018044</v>
+        <v>6881.561921961994</v>
       </c>
       <c r="S24">
-        <v>0.2486854800774733</v>
+        <v>0.1313340692657562</v>
       </c>
       <c r="T24">
-        <v>0.2544670198263336</v>
+        <v>0.1327228942916086</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H25">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I25">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J25">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N25">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O25">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P25">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q25">
-        <v>330.3852337302156</v>
+        <v>33.86826824695633</v>
       </c>
       <c r="R25">
-        <v>1982.311402381294</v>
+        <v>203.209609481738</v>
       </c>
       <c r="S25">
-        <v>0.0455766551750758</v>
+        <v>0.005817359175821982</v>
       </c>
       <c r="T25">
-        <v>0.03109082635206774</v>
+        <v>0.003919250865448033</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H26">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I26">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J26">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N26">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O26">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P26">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q26">
-        <v>1623.166404002767</v>
+        <v>976.4637507822633</v>
       </c>
       <c r="R26">
-        <v>14608.49763602491</v>
+        <v>8788.173757040371</v>
       </c>
       <c r="S26">
-        <v>0.2239158652817121</v>
+        <v>0.1677216065212085</v>
       </c>
       <c r="T26">
-        <v>0.2291215510946649</v>
+        <v>0.1694952206779546</v>
       </c>
     </row>
   </sheetData>
